--- a/IBOOK2.xlsx
+++ b/IBOOK2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="4290" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="4290" tabRatio="979" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Payments" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="614">
   <si>
     <r>
       <t xml:space="preserve">Acceptance Testing for Use Case: </t>
@@ -5766,30 +5766,10 @@
 ID empty.</t>
   </si>
   <si>
-    <t>The user who update is a manager.</t>
-  </si>
-  <si>
     <t>System throws out a warning massage "Account ID is missing".</t>
   </si>
   <si>
-    <t>Open "update user info" window
-Type Account ID to change:
-Choose the fields to update
-Type Account first name: Sheri
-Type Account last name: Holmes
-Type Account ID: 789
-Type Account password:53269
-Type worker ID: 728974
-type account email: sheri@gmail.com
-select account role: librarian
-select account departmnet: librerian dept.
-Click "ok" button</t>
-  </si>
-  <si>
     <t>UpdateUserInfoNoID</t>
-  </si>
-  <si>
-    <t>System throws out a warning massage "Account ID does not exist in DB".</t>
   </si>
   <si>
     <t>Open "update user info" window
@@ -5812,6 +5792,464 @@
     <t>System throws out a warning massage "Account password is missing".</t>
   </si>
   <si>
+    <t>UpdateUserInfoEmailConflict</t>
+  </si>
+  <si>
+    <t>System throws out a warning massage "Account email already exist in the DB"
+system clean all fields</t>
+  </si>
+  <si>
+    <t>CreateEmployeeEmailExist</t>
+  </si>
+  <si>
+    <t>CreateEmployeeNoEmail</t>
+  </si>
+  <si>
+    <t>Checking mandatory fields.
+Password empty.</t>
+  </si>
+  <si>
+    <t>CreateEmployeeNoPass</t>
+  </si>
+  <si>
+    <t>CreateEmployeeNoID</t>
+  </si>
+  <si>
+    <t>Checking mandatory fields.
+Last name empty.</t>
+  </si>
+  <si>
+    <t>System throws out a warning massage "Account last name is missing".</t>
+  </si>
+  <si>
+    <t>Checking mandatory fields.
+First name empty.</t>
+  </si>
+  <si>
+    <t>System throws out a warning massage "Account first name is missing".</t>
+  </si>
+  <si>
+    <t>Checking for existing account ID in the DB</t>
+  </si>
+  <si>
+    <t>System throws out a warning message "Account ID already exist in the DB"
+System cleans all fields.</t>
+  </si>
+  <si>
+    <t>CreateEmployeeIDExist</t>
+  </si>
+  <si>
+    <t>User info was updated successfully</t>
+  </si>
+  <si>
+    <t>Account was updated successfully,</t>
+  </si>
+  <si>
+    <t>UpdateUserInfoSuccessful</t>
+  </si>
+  <si>
+    <t>Account created successfully</t>
+  </si>
+  <si>
+    <t>CreateEmployeeSuccessful</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Not manager</t>
+  </si>
+  <si>
+    <t>Not logged in</t>
+  </si>
+  <si>
+    <t>librerian dept.</t>
+  </si>
+  <si>
+    <t>librerian</t>
+  </si>
+  <si>
+    <t>Zachary@gmail.com</t>
+  </si>
+  <si>
+    <t>zimmerman</t>
+  </si>
+  <si>
+    <t>Zachary</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Howard@gmail.com</t>
+  </si>
+  <si>
+    <t>Vaughn</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not manager </t>
+  </si>
+  <si>
+    <t>Logged in</t>
+  </si>
+  <si>
+    <t>Paula@gmail.com</t>
+  </si>
+  <si>
+    <t>Campbell</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>menegment</t>
+  </si>
+  <si>
+    <t>meneger</t>
+  </si>
+  <si>
+    <t>Jesus@gmail.com</t>
+  </si>
+  <si>
+    <t>Bates</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>Account type</t>
+  </si>
+  <si>
+    <t>User's status in DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">department </t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>worker ID</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Account last name</t>
+  </si>
+  <si>
+    <t>Account first name</t>
+  </si>
+  <si>
+    <t>manage account</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Acceptance Testing for Use Case: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manage account</t>
+    </r>
+  </si>
+  <si>
+    <t>Employee created successfully</t>
+  </si>
+  <si>
+    <t>System throws out a warning message "Account ID does not exist in DB".</t>
+  </si>
+  <si>
+    <t>System throws out a warning message "Account email is missing".</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. System opens "Manage account" window.
+2. Manager clicks </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Create an employee account"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button.
+3. System opens the appropriate form.
+4. Manager fills in all the required fields and clicks </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Submit"
+5. System adds the employee to the database.
+6. Manager clicks the "Update user info" button.
+7. Manager enters a Account ID.
+8. System opens the update details window.
+9. Manager updates any field he chooses and clicks "Submit"
+10. System updates the account information in the database.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>4.1.1 Create form opens
+4.1.2 Manager did not fill all required fields.
+4.1.3 System throws message "All fields must be filled"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Scenario </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>4.2.1 Create form opens
+4.2.2 Manager fills Account ID field.
+4.2.3 System throws message "Employee already exists"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Scenario </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>4.3.1 Create form opens
+4.3.2 Manager fills Email field.
+4.3.3 System throws message "Email already exists"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Scenario </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9.3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>9.3.1 Update form opens
+9.3.2 Manager enters Email.
+9.3.3 System throws message "Email already exists"</t>
+  </si>
+  <si>
+    <t>9.2.1 Update form opens
+9.2.2 Manager deletes one of the relevant fields.
+9.2.3 System throws message "All fields must be filled"</t>
+  </si>
+  <si>
+    <t>9.1.1 Update form opens
+9.1.2 Manager enters Account ID.
+9.1.3 System throws message "Account ID does not exist"</t>
+  </si>
+  <si>
+    <t>Open "create employee" window.
+Type Account first name: Wayne
+Type Account last name: Watson
+Type Account ID: 268
+Type Account password:68757
+type account email: wayne@gmail.com
+select account role: librarian
+select account departmnet: librerian dept.
+Click "ok" button</t>
+  </si>
+  <si>
+    <t>Open "update user info" window
+Type Account ID to change: 214
+Choose the fields to update
+Type Account first name: Sheri
+Type Account last name: Holmes
+Type Account ID: 789
+Type Account password:53269
+type account email: sheri@gmail.com
+select account role: librarian
+select account departmnet: librerian dept.
+Click "ok" button</t>
+  </si>
+  <si>
+    <t>Open "create employee" window
+Type Account first name: Jason
+Type Account last name: Mason
+Type Account ID: 435
+Type Account password:58972
+type account email: jason@gmail.com
+select account role: librarian
+select account departmnet: librerian dept.
+Click "ok" button</t>
+  </si>
+  <si>
+    <t>Open "create employee" window
+Type Account first name:
+Type Account last name: Watson
+Type Account ID: 268
+Type Account password:68757
+type account email: wayne@gmail.com
+select account role: librarian
+select account departmnet: librerian dept.
+Click "ok" button</t>
+  </si>
+  <si>
+    <t>Open "create employee" window
+Type Account first name: Wayne
+Type Account last name:
+Type Account ID: 268
+Type Account password:68757
+type account email: wayne@gmail.com
+select account role: librarian
+select account departmnet: librerian dept.
+Click "ok" button</t>
+  </si>
+  <si>
+    <t>Open "create employee" window
+Type Account first name: Wayne
+Type Account last name: Watson
+Type Account ID:
+Type Account password:68757
+type account email: wayne@gmail.com
+select account role: librarian
+select account departmnet: librerian dept.
+Click "ok" button</t>
+  </si>
+  <si>
+    <t>Open "create employee" window
+Type Account first name: Wayne
+Type Account last name: Watson
+Type Account ID: 268
+Type Account password:
+type account email: wayne@gmail.com
+select account role: librarian
+select account departmnet: librerian dept.
+Click "ok" button</t>
+  </si>
+  <si>
+    <t>Open "create employee" window
+Type Account first name: Wayne
+Type Account last name: Watson
+Type Account ID: 268
+Type Account password:
+type account email:
+select account role: librarian
+select account departmnet: librerian dept.
+Click "ok" button</t>
+  </si>
+  <si>
+    <t>Open "create employee" window
+Type Account first name: Wayne
+Type Account last name: Watson
+Type Account ID: 268
+Type Account password:
+type account email: Jesus@gmail.com
+select account role: librarian
+select account departmnet: librerian dept.
+Click "ok" button</t>
+  </si>
+  <si>
     <t>Open "update user info" window
 Type Account ID to change:
 Choose the fields to update
@@ -5819,360 +6257,58 @@
 Type Account last name: Holmes
 Type Account ID: 789
 Type Account password:53269
-Type worker ID: 559324
 type account email: Jesus@gmail.com
 select account role: librarian
 select account departmnet: librerian dept.
 click "ok" button</t>
   </si>
   <si>
-    <t>UpdateUserInfoEmailConflict</t>
-  </si>
-  <si>
-    <t>The creator is a manager</t>
-  </si>
-  <si>
-    <t>System throws out a warning massage "Account email already exist in the DB"
-system clean all fields</t>
-  </si>
-  <si>
-    <t>Open "create employee" window
-Type Account first name: Wayne
-Type Account last name: Watson
-Type Account ID: 268
-Type Account password:
-Type worker ID: 728974
-type account email: Jesus@gmail.com
-select account role: librarian
-select account departmnet: librerian dept.
-Click "ok" button</t>
-  </si>
-  <si>
-    <t>CreateEmployeeEmailExist</t>
-  </si>
-  <si>
-    <t>System throws out a warning massage "Account email is missing".</t>
-  </si>
-  <si>
-    <t>Open "create employee" window
-Type Account first name: Wayne
-Type Account last name: Watson
-Type Account ID: 268
-Type Account password:
-Type worker ID: 728974
-type account email:
-select account role: librarian
-select account departmnet: librerian dept.
-Click "ok" button</t>
-  </si>
-  <si>
-    <t>CreateEmployeeNoEmail</t>
-  </si>
-  <si>
-    <t>System throws out a warning massage "Account workerID already exist in the DB"
-system clean all fields</t>
-  </si>
-  <si>
-    <t>Open "create employee" window
-Type Account first name: Wayne
-Type Account last name: Watson
-Type Account ID: 268
-Type Account password:
-Type worker ID: 
-type account email: wayne@gmail.com
-select account role: librarian
-select account departmnet: librerian dept.
-Click "ok" button</t>
-  </si>
-  <si>
-    <t>CreateEmployeeWorkerIDExist</t>
-  </si>
-  <si>
-    <t>System throws out a warning massage "Account workerID is missing".</t>
-  </si>
-  <si>
-    <t>Open "create employee" window
-Type Account first name: Wayne
-Type Account last name: Watson
-Type Account ID: 268
-Type Account password:
-Type worker ID: 728974
-type account email: wayne@gmail.com
-select account role: librarian
-select account departmnet: librerian dept.
-Click "ok" button</t>
-  </si>
-  <si>
-    <t>CreateEmployeeNoWorkerID</t>
-  </si>
-  <si>
-    <t>Checking mandatory fields.
-Password empty.</t>
-  </si>
-  <si>
-    <t>The creator is a manager.</t>
-  </si>
-  <si>
-    <t>Open "create employee" window
-Type Account first name: Wayne
-Type Account last name: Watson
-Type Account ID: 268
-Type Account password:
-Type worker ID: 124556
-type account email: wayne@gmail.com
-select account role: librarian
-select account departmnet: librerian dept.
-Click "ok" button</t>
-  </si>
-  <si>
-    <t>CreateEmployeeNoPass</t>
-  </si>
-  <si>
-    <t>Open "create employee" window
-Type Account first name: Wayne
-Type Account last name: Watson
-Type Account ID:
-Type Account password:68757
-Type worker ID: 124556
-type account email: wayne@gmail.com
-select account role: librarian
-select account departmnet: librerian dept.
-Click "ok" button</t>
-  </si>
-  <si>
-    <t>CreateEmployeeNoID</t>
-  </si>
-  <si>
-    <t>Checking mandatory fields.
-Last name empty.</t>
-  </si>
-  <si>
-    <t>System throws out a warning massage "Account last name is missing".</t>
-  </si>
-  <si>
-    <t>Open "create employee" window
-Type Account first name: Wayne
-Type Account last name:
-Type Account ID: 268
-Type Account password:68757
-Type worker ID: 124556
-type account email: wayne@gmail.com
-select account role: librarian
-select account departmnet: librerian dept.
-Click "ok" button</t>
-  </si>
-  <si>
-    <t>CreateEmployeeNoLName</t>
-  </si>
-  <si>
-    <t>Checking mandatory fields.
-First name empty.</t>
-  </si>
-  <si>
-    <t>System throws out a warning massage "Account first name is missing".</t>
-  </si>
-  <si>
-    <t>Open "create employee" window
-Type Account first name:
-Type Account last name: Watson
-Type Account ID: 268
-Type Account password:68757
-Type worker ID: 124556
-type account email: wayne@gmail.com
-select account role: librarian
-select account departmnet: librerian dept.
-Click "ok" button</t>
-  </si>
-  <si>
-    <t>CreateEmployeeNoFName</t>
-  </si>
-  <si>
-    <t>Checking for existing account ID in the DB</t>
-  </si>
-  <si>
-    <t>Account ID already in the DB.
-The creator is a manager.</t>
-  </si>
-  <si>
-    <t>System throws out a warning message "Account ID already exist in the DB"
-System cleans all fields.</t>
-  </si>
-  <si>
-    <t>Open "create employee" window
-Type Account first name: Jason
-Type Account last name: Mason
-Type Account ID: 435
-Type Account password:58972
-Type worker ID: 134456
-type account email: jason@gmail.com
-select account role: librarian
-select account departmnet: librerian dept.
-Click "ok" button</t>
-  </si>
-  <si>
-    <t>CreateEmployeeIDExist</t>
-  </si>
-  <si>
-    <t>User info was updated successfully</t>
-  </si>
-  <si>
-    <t>Account ID exist in the DB.</t>
-  </si>
-  <si>
-    <t>Account was updated successfully,</t>
-  </si>
-  <si>
     <t>Open "update user info" window
-Type Account ID to change: 214
+Type Account ID to change:
 Choose the fields to update
 Type Account first name: Sheri
 Type Account last name: Holmes
 Type Account ID: 789
 Type Account password:53269
-Type worker ID: 728974
 type account email: sheri@gmail.com
 select account role: librarian
 select account departmnet: librerian dept.
 Click "ok" button</t>
   </si>
   <si>
-    <t>UpdateUserInfoSuccessful</t>
-  </si>
-  <si>
-    <t>Employee crated successfully</t>
-  </si>
-  <si>
-    <t>Account ID not already in the DB.</t>
-  </si>
-  <si>
-    <t>Account created successfully</t>
-  </si>
-  <si>
-    <t>Open "create employee" window.
-Type Account first name: Wayne
+    <t>CreateEmployeeNoFirstName</t>
+  </si>
+  <si>
+    <t>CreateEmployeeNoLastName</t>
+  </si>
+  <si>
+    <t>UpdateEmployeeNoFirstName</t>
+  </si>
+  <si>
+    <t>Open "update user info" window
+Type Account first name:
 Type Account last name: Watson
 Type Account ID: 268
 Type Account password:68757
-Type worker ID: 124556
 type account email: wayne@gmail.com
 select account role: librarian
 select account departmnet: librerian dept.
 Click "ok" button</t>
   </si>
   <si>
-    <t>CreateEmployeeSuccessful</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>Not manager</t>
-  </si>
-  <si>
-    <t>Not logged in</t>
-  </si>
-  <si>
-    <t>librerian dept.</t>
-  </si>
-  <si>
-    <t>librerian</t>
-  </si>
-  <si>
-    <t>Zachary@gmail.com</t>
-  </si>
-  <si>
-    <t>zimmerman</t>
-  </si>
-  <si>
-    <t>Zachary</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Howard@gmail.com</t>
-  </si>
-  <si>
-    <t>Vaughn</t>
-  </si>
-  <si>
-    <t>Howard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not manager </t>
-  </si>
-  <si>
-    <t>Logged in</t>
-  </si>
-  <si>
-    <t>Paula@gmail.com</t>
-  </si>
-  <si>
-    <t>Campbell</t>
-  </si>
-  <si>
-    <t>Paula</t>
-  </si>
-  <si>
-    <t>menegment</t>
-  </si>
-  <si>
-    <t>meneger</t>
-  </si>
-  <si>
-    <t>Jesus@gmail.com</t>
-  </si>
-  <si>
-    <t>Bates</t>
-  </si>
-  <si>
-    <t>Jesus</t>
-  </si>
-  <si>
-    <t>Account type</t>
-  </si>
-  <si>
-    <t>User's status in DB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">department </t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>worker ID</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Account last name</t>
-  </si>
-  <si>
-    <t>Account first name</t>
-  </si>
-  <si>
-    <t>manage account</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Acceptance Testing for Use Case: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>manage account</t>
-    </r>
+    <t>Logged in as manager</t>
+  </si>
+  <si>
+    <t>Account ID not already in the DB.
+Logged in as manager.</t>
+  </si>
+  <si>
+    <t>Account ID exist in the DB.
+Logged in as manager.</t>
+  </si>
+  <si>
+    <t>Account ID already in the DB.
+Logged in as manager.</t>
   </si>
 </sst>
 </file>
@@ -6547,7 +6683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="78">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -7464,30 +7600,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7496,7 +7608,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8197,12 +8309,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -8222,17 +8328,29 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="52" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="55" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="73" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="61" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -11038,15 +11156,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="74" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="74" customWidth="1"/>
     <col min="2" max="2" width="30.125" style="73" customWidth="1"/>
     <col min="3" max="3" width="25.75" style="118" customWidth="1"/>
     <col min="4" max="4" width="37.875" style="118" customWidth="1"/>
@@ -11059,7 +11177,7 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" s="172" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="C1" s="172"/>
       <c r="D1" s="70"/>
@@ -11088,7 +11206,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>608</v>
+        <v>580</v>
       </c>
       <c r="D3" s="70"/>
       <c r="E3" s="70"/>
@@ -11149,7 +11267,9 @@
       <c r="B7" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="173" t="s">
+        <v>585</v>
+      </c>
       <c r="D7" s="174"/>
       <c r="E7" s="70"/>
       <c r="F7" s="70"/>
@@ -11171,9 +11291,13 @@
       <c r="J8" s="70"/>
       <c r="K8" s="70"/>
     </row>
-    <row r="9" spans="2:11" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="92"/>
-      <c r="C9" s="177"/>
+    <row r="9" spans="2:11" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="92" t="s">
+        <v>435</v>
+      </c>
+      <c r="C9" s="177" t="s">
+        <v>586</v>
+      </c>
       <c r="D9" s="178"/>
       <c r="E9" s="70"/>
       <c r="F9" s="70"/>
@@ -11183,10 +11307,14 @@
       <c r="J9" s="70"/>
       <c r="K9" s="70"/>
     </row>
-    <row r="10" spans="2:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="91"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="176"/>
+    <row r="10" spans="2:11" ht="40.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="264" t="s">
+        <v>587</v>
+      </c>
+      <c r="C10" s="263" t="s">
+        <v>588</v>
+      </c>
+      <c r="D10" s="178"/>
       <c r="E10" s="70"/>
       <c r="F10" s="70"/>
       <c r="G10" s="70"/>
@@ -11195,10 +11323,14 @@
       <c r="J10" s="70"/>
       <c r="K10" s="70"/>
     </row>
-    <row r="11" spans="2:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="243"/>
-      <c r="C11" s="218"/>
-      <c r="D11" s="219"/>
+    <row r="11" spans="2:11" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="264" t="s">
+        <v>589</v>
+      </c>
+      <c r="C11" s="263" t="s">
+        <v>590</v>
+      </c>
+      <c r="D11" s="178"/>
       <c r="E11" s="70"/>
       <c r="F11" s="70"/>
       <c r="G11" s="70"/>
@@ -11207,10 +11339,14 @@
       <c r="J11" s="70"/>
       <c r="K11" s="70"/>
     </row>
-    <row r="12" spans="2:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="268"/>
-      <c r="C12" s="218"/>
-      <c r="D12" s="219"/>
+    <row r="12" spans="2:11" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="264" t="s">
+        <v>466</v>
+      </c>
+      <c r="C12" s="263" t="s">
+        <v>594</v>
+      </c>
+      <c r="D12" s="178"/>
       <c r="E12" s="70"/>
       <c r="F12" s="70"/>
       <c r="G12" s="70"/>
@@ -11219,10 +11355,14 @@
       <c r="J12" s="70"/>
       <c r="K12" s="70"/>
     </row>
-    <row r="13" spans="2:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="268"/>
-      <c r="C13" s="218"/>
-      <c r="D13" s="219"/>
+    <row r="13" spans="2:11" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="264" t="s">
+        <v>464</v>
+      </c>
+      <c r="C13" s="263" t="s">
+        <v>593</v>
+      </c>
+      <c r="D13" s="178"/>
       <c r="E13" s="70"/>
       <c r="F13" s="70"/>
       <c r="G13" s="70"/>
@@ -11232,9 +11372,13 @@
       <c r="K13" s="70"/>
     </row>
     <row r="14" spans="2:11" ht="73.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="267"/>
-      <c r="C14" s="266"/>
-      <c r="D14" s="265"/>
+      <c r="B14" s="264" t="s">
+        <v>591</v>
+      </c>
+      <c r="C14" s="265" t="s">
+        <v>592</v>
+      </c>
+      <c r="D14" s="174"/>
       <c r="E14" s="70"/>
       <c r="F14" s="70"/>
       <c r="G14" s="70"/>
@@ -11271,177 +11415,177 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="245" t="s">
-        <v>607</v>
+        <v>579</v>
       </c>
       <c r="C17" s="244" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="D17" s="244" t="s">
         <v>429</v>
       </c>
       <c r="E17" s="244" t="s">
-        <v>605</v>
+        <v>577</v>
       </c>
       <c r="F17" s="244" t="s">
-        <v>604</v>
+        <v>576</v>
       </c>
       <c r="G17" s="244" t="s">
-        <v>603</v>
+        <v>575</v>
       </c>
       <c r="H17" s="244" t="s">
-        <v>602</v>
+        <v>574</v>
       </c>
       <c r="I17" s="244" t="s">
-        <v>601</v>
+        <v>573</v>
       </c>
       <c r="J17" s="244" t="s">
-        <v>600</v>
+        <v>572</v>
       </c>
       <c r="K17" s="244" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="263" t="s">
-        <v>598</v>
-      </c>
-      <c r="C18" s="261" t="s">
-        <v>597</v>
-      </c>
-      <c r="D18" s="261">
+      <c r="B18" s="261" t="s">
+        <v>570</v>
+      </c>
+      <c r="C18" s="259" t="s">
+        <v>569</v>
+      </c>
+      <c r="D18" s="259">
         <v>435</v>
       </c>
-      <c r="E18" s="261">
+      <c r="E18" s="259">
         <v>12345</v>
       </c>
-      <c r="F18" s="261">
+      <c r="F18" s="259">
         <v>559324</v>
       </c>
-      <c r="G18" s="264" t="s">
-        <v>596</v>
-      </c>
-      <c r="H18" s="261" t="s">
-        <v>595</v>
-      </c>
-      <c r="I18" s="261" t="s">
-        <v>594</v>
-      </c>
-      <c r="J18" s="261" t="s">
-        <v>590</v>
-      </c>
-      <c r="K18" s="261" t="s">
-        <v>585</v>
+      <c r="G18" s="262" t="s">
+        <v>568</v>
+      </c>
+      <c r="H18" s="259" t="s">
+        <v>567</v>
+      </c>
+      <c r="I18" s="259" t="s">
+        <v>566</v>
+      </c>
+      <c r="J18" s="259" t="s">
+        <v>562</v>
+      </c>
+      <c r="K18" s="259" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="263" t="s">
-        <v>593</v>
-      </c>
-      <c r="C19" s="261" t="s">
-        <v>592</v>
-      </c>
-      <c r="D19" s="261">
+      <c r="B19" s="261" t="s">
+        <v>565</v>
+      </c>
+      <c r="C19" s="259" t="s">
+        <v>564</v>
+      </c>
+      <c r="D19" s="259">
         <v>214</v>
       </c>
-      <c r="E19" s="261">
+      <c r="E19" s="259">
         <v>56897</v>
       </c>
-      <c r="F19" s="261">
+      <c r="F19" s="259">
         <v>728974</v>
       </c>
-      <c r="G19" s="262" t="s">
-        <v>591</v>
-      </c>
-      <c r="H19" s="261" t="s">
-        <v>581</v>
-      </c>
-      <c r="I19" s="261" t="s">
-        <v>580</v>
-      </c>
-      <c r="J19" s="261" t="s">
-        <v>590</v>
-      </c>
-      <c r="K19" s="261" t="s">
-        <v>589</v>
+      <c r="G19" s="260" t="s">
+        <v>563</v>
+      </c>
+      <c r="H19" s="259" t="s">
+        <v>553</v>
+      </c>
+      <c r="I19" s="259" t="s">
+        <v>552</v>
+      </c>
+      <c r="J19" s="259" t="s">
+        <v>562</v>
+      </c>
+      <c r="K19" s="259" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="263" t="s">
-        <v>588</v>
-      </c>
-      <c r="C20" s="261" t="s">
-        <v>587</v>
-      </c>
-      <c r="D20" s="261">
+      <c r="B20" s="261" t="s">
+        <v>560</v>
+      </c>
+      <c r="C20" s="259" t="s">
+        <v>559</v>
+      </c>
+      <c r="D20" s="259">
         <v>424</v>
       </c>
-      <c r="E20" s="261">
+      <c r="E20" s="259">
         <v>78941</v>
       </c>
-      <c r="F20" s="261">
+      <c r="F20" s="259">
         <v>348903</v>
       </c>
-      <c r="G20" s="262" t="s">
-        <v>586</v>
-      </c>
-      <c r="H20" s="261" t="s">
-        <v>581</v>
-      </c>
-      <c r="I20" s="261" t="s">
-        <v>580</v>
-      </c>
-      <c r="J20" s="261" t="s">
-        <v>579</v>
-      </c>
-      <c r="K20" s="261" t="s">
-        <v>585</v>
+      <c r="G20" s="260" t="s">
+        <v>558</v>
+      </c>
+      <c r="H20" s="259" t="s">
+        <v>553</v>
+      </c>
+      <c r="I20" s="259" t="s">
+        <v>552</v>
+      </c>
+      <c r="J20" s="259" t="s">
+        <v>551</v>
+      </c>
+      <c r="K20" s="259" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="263" t="s">
-        <v>584</v>
+      <c r="B21" s="261" t="s">
+        <v>556</v>
       </c>
       <c r="C21" s="245" t="s">
-        <v>583</v>
+        <v>555</v>
       </c>
       <c r="D21" s="245">
         <v>896</v>
       </c>
-      <c r="E21" s="261">
+      <c r="E21" s="259">
         <v>15879</v>
       </c>
-      <c r="F21" s="261">
+      <c r="F21" s="259">
         <v>473289</v>
       </c>
-      <c r="G21" s="262" t="s">
-        <v>582</v>
-      </c>
-      <c r="H21" s="261" t="s">
-        <v>581</v>
-      </c>
-      <c r="I21" s="261" t="s">
-        <v>580</v>
-      </c>
-      <c r="J21" s="261" t="s">
-        <v>579</v>
-      </c>
-      <c r="K21" s="261" t="s">
-        <v>578</v>
+      <c r="G21" s="260" t="s">
+        <v>554</v>
+      </c>
+      <c r="H21" s="259" t="s">
+        <v>553</v>
+      </c>
+      <c r="I21" s="259" t="s">
+        <v>552</v>
+      </c>
+      <c r="J21" s="259" t="s">
+        <v>551</v>
+      </c>
+      <c r="K21" s="259" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="31.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="237" t="s">
         <v>511</v>
       </c>
-      <c r="C22" s="260"/>
-      <c r="D22" s="260"/>
-      <c r="E22" s="260"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="260"/>
-      <c r="H22" s="260"/>
-      <c r="I22" s="260"/>
-      <c r="J22" s="260"/>
-      <c r="K22" s="259"/>
+      <c r="C22" s="258"/>
+      <c r="D22" s="258"/>
+      <c r="E22" s="258"/>
+      <c r="F22" s="258"/>
+      <c r="G22" s="258"/>
+      <c r="H22" s="258"/>
+      <c r="I22" s="258"/>
+      <c r="J22" s="258"/>
+      <c r="K22" s="257"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" s="226"/>
@@ -11455,36 +11599,36 @@
       <c r="J23" s="70"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="258" t="s">
+      <c r="B24" s="256" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="257"/>
-      <c r="D24" s="257"/>
-      <c r="E24" s="257"/>
-      <c r="F24" s="257"/>
-      <c r="G24" s="256"/>
-      <c r="H24" s="256"/>
-      <c r="I24" s="256"/>
-      <c r="J24" s="256"/>
+      <c r="C24" s="255"/>
+      <c r="D24" s="255"/>
+      <c r="E24" s="255"/>
+      <c r="F24" s="255"/>
+      <c r="G24" s="254"/>
+      <c r="H24" s="254"/>
+      <c r="I24" s="254"/>
+      <c r="J24" s="254"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="255" t="s">
+      <c r="B25" s="266" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="254" t="s">
+      <c r="C25" s="267" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="254" t="s">
+      <c r="D25" s="267" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="254" t="s">
+      <c r="E25" s="267" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="254" t="s">
-        <v>577</v>
+      <c r="F25" s="267" t="s">
+        <v>549</v>
       </c>
       <c r="G25" s="70"/>
       <c r="H25" s="70"/>
@@ -11492,24 +11636,24 @@
       <c r="J25" s="70"/>
       <c r="K25" s="70"/>
     </row>
-    <row r="26" spans="1:11" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="119">
+    <row r="26" spans="1:11" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="120">
         <v>1</v>
       </c>
       <c r="B26" s="245" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="C26" s="244" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="D26" s="244" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="E26" s="244" t="s">
-        <v>573</v>
+        <v>611</v>
       </c>
       <c r="F26" s="245" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="G26" s="70"/>
       <c r="H26" s="70"/>
@@ -11517,24 +11661,24 @@
       <c r="J26" s="70"/>
       <c r="K26" s="70"/>
     </row>
-    <row r="27" spans="1:11" ht="271.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71">
+    <row r="27" spans="1:11" ht="257.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="268">
         <v>2</v>
       </c>
       <c r="B27" s="245" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="C27" s="244" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="D27" s="244" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="E27" s="244" t="s">
-        <v>568</v>
+        <v>612</v>
       </c>
       <c r="F27" s="245" t="s">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="G27" s="70"/>
       <c r="H27" s="70"/>
@@ -11542,24 +11686,24 @@
       <c r="J27" s="70"/>
       <c r="K27" s="70"/>
     </row>
-    <row r="28" spans="1:11" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="71">
+    <row r="28" spans="1:11" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="268">
         <v>3</v>
       </c>
       <c r="B28" s="245" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="C28" s="244" t="s">
-        <v>565</v>
+        <v>597</v>
       </c>
       <c r="D28" s="244" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="E28" s="244" t="s">
-        <v>563</v>
+        <v>613</v>
       </c>
       <c r="F28" s="245" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="G28" s="70"/>
       <c r="H28" s="70"/>
@@ -11567,24 +11711,24 @@
       <c r="J28" s="70"/>
       <c r="K28" s="70"/>
     </row>
-    <row r="29" spans="1:11" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="74">
+    <row r="29" spans="1:11" ht="200.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="269">
         <v>4</v>
       </c>
       <c r="B29" s="252" t="s">
-        <v>561</v>
+        <v>606</v>
       </c>
       <c r="C29" s="250" t="s">
-        <v>560</v>
+        <v>598</v>
       </c>
       <c r="D29" s="252" t="s">
-        <v>559</v>
-      </c>
-      <c r="E29" s="252" t="s">
-        <v>549</v>
+        <v>540</v>
+      </c>
+      <c r="E29" s="245" t="s">
+        <v>610</v>
       </c>
       <c r="F29" s="250" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="G29" s="71"/>
       <c r="H29" s="70"/>
@@ -11592,24 +11736,24 @@
       <c r="J29" s="70"/>
       <c r="K29" s="70"/>
     </row>
-    <row r="30" spans="1:11" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="74">
+    <row r="30" spans="1:11" ht="200.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="269">
         <v>5</v>
       </c>
       <c r="B30" s="253" t="s">
-        <v>557</v>
+        <v>607</v>
       </c>
       <c r="C30" s="244" t="s">
-        <v>556</v>
+        <v>599</v>
       </c>
       <c r="D30" s="245" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="E30" s="245" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
       <c r="F30" s="244" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="G30" s="71"/>
       <c r="H30" s="70"/>
@@ -11617,21 +11761,21 @@
       <c r="J30" s="70"/>
       <c r="K30" s="70"/>
     </row>
-    <row r="31" spans="1:11" ht="228.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="74">
+    <row r="31" spans="1:11" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="269">
         <v>6</v>
       </c>
       <c r="B31" s="245" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="C31" s="244" t="s">
-        <v>552</v>
+        <v>600</v>
       </c>
       <c r="D31" s="245" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E31" s="245" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
       <c r="F31" s="244" t="s">
         <v>524</v>
@@ -11642,24 +11786,24 @@
       <c r="J31" s="70"/>
       <c r="K31" s="70"/>
     </row>
-    <row r="32" spans="1:11" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="74">
+    <row r="32" spans="1:11" ht="200.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="269">
         <v>7</v>
       </c>
       <c r="B32" s="252" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="C32" s="250" t="s">
-        <v>550</v>
+        <v>601</v>
       </c>
       <c r="D32" s="252" t="s">
-        <v>532</v>
-      </c>
-      <c r="E32" s="252" t="s">
-        <v>549</v>
+        <v>529</v>
+      </c>
+      <c r="E32" s="245" t="s">
+        <v>610</v>
       </c>
       <c r="F32" s="250" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="G32" s="71"/>
       <c r="H32" s="70"/>
@@ -11667,21 +11811,21 @@
       <c r="J32" s="70"/>
       <c r="K32" s="70"/>
     </row>
-    <row r="33" spans="1:11" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="74">
+    <row r="33" spans="1:11" ht="186" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="269">
         <v>8</v>
       </c>
       <c r="B33" s="245" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C33" s="244" t="s">
-        <v>546</v>
+        <v>602</v>
       </c>
       <c r="D33" s="245" t="s">
-        <v>545</v>
+        <v>584</v>
       </c>
       <c r="E33" s="245" t="s">
-        <v>535</v>
+        <v>610</v>
       </c>
       <c r="F33" s="251"/>
       <c r="G33" s="71"/>
@@ -11690,21 +11834,21 @@
       <c r="J33" s="70"/>
       <c r="K33" s="70"/>
     </row>
-    <row r="34" spans="1:11" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="74">
+    <row r="34" spans="1:11" ht="200.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="269">
         <v>9</v>
       </c>
       <c r="B34" s="245" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="C34" s="244" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="D34" s="250" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="E34" s="245" t="s">
-        <v>535</v>
+        <v>610</v>
       </c>
       <c r="F34" s="251"/>
       <c r="G34" s="71"/>
@@ -11713,118 +11857,124 @@
       <c r="J34" s="70"/>
       <c r="K34" s="70"/>
     </row>
-    <row r="35" spans="1:11" ht="200.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="74">
+    <row r="35" spans="1:11" ht="243" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="269">
         <v>10</v>
       </c>
-      <c r="B35" s="245" t="s">
-        <v>541</v>
-      </c>
-      <c r="C35" s="244" t="s">
-        <v>540</v>
-      </c>
-      <c r="D35" s="245" t="s">
-        <v>539</v>
-      </c>
-      <c r="E35" s="245"/>
-      <c r="F35" s="251"/>
+      <c r="B35" s="248" t="s">
+        <v>530</v>
+      </c>
+      <c r="C35" s="250" t="s">
+        <v>604</v>
+      </c>
+      <c r="D35" s="248" t="s">
+        <v>529</v>
+      </c>
+      <c r="E35" s="245" t="s">
+        <v>610</v>
+      </c>
+      <c r="F35" s="247"/>
       <c r="G35" s="71"/>
       <c r="H35" s="70"/>
       <c r="I35" s="70"/>
       <c r="J35" s="70"/>
       <c r="K35" s="70"/>
     </row>
-    <row r="36" spans="1:11" ht="214.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="74">
+    <row r="36" spans="1:11" ht="257.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="269">
         <v>11</v>
       </c>
-      <c r="B36" s="245" t="s">
-        <v>538</v>
-      </c>
-      <c r="C36" s="244" t="s">
-        <v>537</v>
-      </c>
-      <c r="D36" s="250" t="s">
-        <v>536</v>
+      <c r="B36" s="248" t="s">
+        <v>528</v>
+      </c>
+      <c r="C36" s="249" t="s">
+        <v>527</v>
+      </c>
+      <c r="D36" s="248" t="s">
+        <v>583</v>
       </c>
       <c r="E36" s="245" t="s">
-        <v>535</v>
-      </c>
-      <c r="F36" s="251"/>
+        <v>610</v>
+      </c>
+      <c r="F36" s="247"/>
       <c r="G36" s="71"/>
       <c r="H36" s="70"/>
       <c r="I36" s="70"/>
       <c r="J36" s="70"/>
       <c r="K36" s="70"/>
     </row>
-    <row r="37" spans="1:11" ht="257.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="74">
+    <row r="37" spans="1:11" ht="243" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="246">
         <v>12</v>
       </c>
-      <c r="B37" s="248" t="s">
-        <v>534</v>
-      </c>
-      <c r="C37" s="250" t="s">
-        <v>533</v>
-      </c>
-      <c r="D37" s="248" t="s">
-        <v>532</v>
-      </c>
-      <c r="E37" s="248"/>
-      <c r="F37" s="247"/>
+      <c r="B37" s="245" t="s">
+        <v>526</v>
+      </c>
+      <c r="C37" s="244" t="s">
+        <v>605</v>
+      </c>
+      <c r="D37" s="245" t="s">
+        <v>525</v>
+      </c>
+      <c r="E37" s="245" t="s">
+        <v>610</v>
+      </c>
+      <c r="F37" s="244" t="s">
+        <v>524</v>
+      </c>
       <c r="G37" s="71"/>
       <c r="H37" s="70"/>
       <c r="I37" s="70"/>
       <c r="J37" s="70"/>
       <c r="K37" s="70"/>
     </row>
-    <row r="38" spans="1:11" ht="257.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="74">
+    <row r="38" spans="1:11" ht="200.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="269">
         <v>13</v>
       </c>
-      <c r="B38" s="248" t="s">
-        <v>531</v>
-      </c>
-      <c r="C38" s="249" t="s">
-        <v>530</v>
-      </c>
-      <c r="D38" s="248" t="s">
-        <v>529</v>
-      </c>
-      <c r="E38" s="248" t="s">
-        <v>525</v>
-      </c>
-      <c r="F38" s="247"/>
-      <c r="G38" s="71"/>
+      <c r="B38" s="252" t="s">
+        <v>608</v>
+      </c>
+      <c r="C38" s="250" t="s">
+        <v>609</v>
+      </c>
+      <c r="D38" s="252" t="s">
+        <v>540</v>
+      </c>
+      <c r="E38" s="245" t="s">
+        <v>610</v>
+      </c>
+      <c r="F38" s="250" t="s">
+        <v>539</v>
+      </c>
+      <c r="G38" s="70"/>
       <c r="H38" s="70"/>
       <c r="I38" s="70"/>
       <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-    </row>
-    <row r="39" spans="1:11" ht="257.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="246">
+    </row>
+    <row r="39" spans="1:11" ht="200.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="270">
         <v>14</v>
       </c>
-      <c r="B39" s="245" t="s">
-        <v>528</v>
+      <c r="B39" s="253" t="s">
+        <v>607</v>
       </c>
       <c r="C39" s="244" t="s">
-        <v>527</v>
+        <v>599</v>
       </c>
       <c r="D39" s="245" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="E39" s="245" t="s">
-        <v>525</v>
+        <v>610</v>
       </c>
       <c r="F39" s="244" t="s">
-        <v>524</v>
-      </c>
-      <c r="G39" s="71"/>
+        <v>537</v>
+      </c>
+      <c r="G39" s="70"/>
       <c r="H39" s="70"/>
       <c r="I39" s="70"/>
       <c r="J39" s="70"/>
-      <c r="K39" s="70"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B40" s="71"/>
@@ -11837,7 +11987,7 @@
       <c r="I40" s="70"/>
       <c r="J40" s="70"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="71"/>
       <c r="C41" s="70"/>
       <c r="D41" s="70"/>
@@ -11847,6 +11997,7 @@
       <c r="H41" s="70"/>
       <c r="I41" s="70"/>
       <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B42" s="71"/>
@@ -11858,8 +12009,9 @@
       <c r="H42" s="70"/>
       <c r="I42" s="70"/>
       <c r="J42" s="70"/>
-    </row>
-    <row r="43" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K42" s="70"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B43" s="71"/>
       <c r="C43" s="70"/>
       <c r="D43" s="70"/>
@@ -11896,37 +12048,13 @@
       <c r="K45" s="70"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="71"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="70"/>
       <c r="K46" s="70"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="71"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
       <c r="K47" s="70"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K48" s="70"/>
-    </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K49" s="70"/>
-    </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K50" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13162,7 +13290,7 @@
   <dimension ref="B1:G253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15513,7 +15641,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15808,8 +15936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
